--- a/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
+++ b/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BCD95B-43A8-4970-B83C-3C35B2F7C225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16384" windowHeight="8192" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="352">
   <si>
     <t>int</t>
   </si>
@@ -1032,53 +1037,68 @@
   </si>
   <si>
     <t>247D41D1|247D41D1</t>
+  </si>
+  <si>
+    <t>至尊水龙蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|5|19|15|1204|1205|1206|1207|1208|1209|1210</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>63|25|10|2|0.19|0.19|0.19|0.19|0.19|0.19|0.19</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊火龙蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>21|10|29|38|1211|1212|1213|1214|1215|1216|1217</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊木龙蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>22|197|138|670|1218|1219|1220|1221|1222|1223|1224</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊土龙蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>23|548|563|1225|1226|1227|1228|1229|1230|1231</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊光龙蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>25|1014|1019|515|1232|1233|1234|1235|1236|1237|1238</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊暗龙蛋</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>26|1018|1029|538|1239|1240|1241|1242|1243|1244|1245</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="38">
-    <numFmt numFmtId="176" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;"/>
-    <numFmt numFmtId="6" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥\-#,##0.00"/>
-    <numFmt numFmtId="23" formatCode="\$#,##0_);\(\$#,##0\)"/>
-    <numFmt numFmtId="178" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="180" formatCode="[DBNum1][$-804]yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="182" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="183" formatCode="[DBNum1]上午/下午h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="184" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="8" formatCode="&quot;￥&quot;#,##0.00;[Red]&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="185" formatCode="yy/m/d"/>
-    <numFmt numFmtId="26" formatCode="\$#,##0.00_);[Red]\(\$#,##0.00\)"/>
-    <numFmt numFmtId="186" formatCode="[$-804]aaaa"/>
-    <numFmt numFmtId="187" formatCode="yyyy/m/d\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="188" formatCode="mmmmm"/>
-    <numFmt numFmtId="25" formatCode="\$#,##0.00_);\(\$#,##0.00\)"/>
-    <numFmt numFmtId="189" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="190" formatCode="\¥#,##0.00;\¥\-#,##0.00"/>
-    <numFmt numFmtId="191" formatCode="m/d"/>
-    <numFmt numFmtId="192" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="5" formatCode="&quot;￥&quot;#,##0;&quot;￥&quot;\-#,##0"/>
-    <numFmt numFmtId="193" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="194" formatCode="[$-804]aaa"/>
-    <numFmt numFmtId="195" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="196" formatCode="[DBNum1]h&quot;时&quot;mm&quot;分&quot;"/>
-    <numFmt numFmtId="197" formatCode="\¥#,##0;\¥\-#,##0"/>
-    <numFmt numFmtId="198" formatCode="\¥#,##0;[Red]\¥\-#,##0"/>
-    <numFmt numFmtId="199" formatCode="#\ ??"/>
-    <numFmt numFmtId="200" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="201" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="196" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1088,7 +1108,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1105,167 +1125,34 @@
       <sz val="9.75"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1284,194 +1171,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1480,292 +1181,61 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="195" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="196" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="196" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="195" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="196" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="196" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1774,67 +1244,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="196" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2092,33 +1520,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E55" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H98" sqref="H98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.2571428571429" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.2571428571429" style="5"/>
-    <col min="2" max="2" width="13.8571428571429" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.1428571428571" style="6"/>
-    <col min="4" max="4" width="23.0952380952381" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.8571428571429" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.6666666666667" style="5" customWidth="1"/>
-    <col min="7" max="7" width="49.5714285714286" style="7" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="5"/>
+    <col min="2" max="2" width="13.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="6"/>
+    <col min="4" max="4" width="51.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="49.5703125" style="7" customWidth="1"/>
     <col min="8" max="8" width="19" style="5" customWidth="1"/>
-    <col min="9" max="9" width="20.647619047619" style="5" customWidth="1"/>
-    <col min="1022" max="1022" width="11.5238095238095" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="5" customWidth="1"/>
+    <col min="1022" max="1022" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2131,13 +1559,13 @@
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="14" t="s">
@@ -2146,17 +1574,17 @@
       <c r="I1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -2169,13 +1597,13 @@
       <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H2" s="14" t="s">
@@ -2184,17 +1612,17 @@
       <c r="I2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="28" t="s">
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="49.5" spans="1:12">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
@@ -2207,32 +1635,32 @@
       <c r="D3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>1001</v>
       </c>
@@ -2249,7 +1677,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="14"/>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H5" s="5">
@@ -2259,7 +1687,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>1002</v>
       </c>
@@ -2276,7 +1704,7 @@
         <v>38</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H6" s="5">
@@ -2286,7 +1714,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>1003</v>
       </c>
@@ -2305,7 +1733,7 @@
       <c r="F7" s="14">
         <v>0.2</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H7" s="5">
@@ -2315,7 +1743,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>1004</v>
       </c>
@@ -2332,7 +1760,7 @@
         <v>47</v>
       </c>
       <c r="F8" s="14"/>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H8" s="5">
@@ -2342,7 +1770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>1005</v>
       </c>
@@ -2359,7 +1787,7 @@
         <v>51</v>
       </c>
       <c r="F9" s="14"/>
-      <c r="G9" s="22" t="s">
+      <c r="G9" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H9" s="5">
@@ -2369,7 +1797,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>1006</v>
       </c>
@@ -2386,7 +1814,7 @@
         <v>55</v>
       </c>
       <c r="F10" s="14"/>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H10" s="5">
@@ -2396,7 +1824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>1007</v>
       </c>
@@ -2413,7 +1841,7 @@
         <v>59</v>
       </c>
       <c r="F11" s="14"/>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="5">
@@ -2423,7 +1851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>1008</v>
       </c>
@@ -2442,7 +1870,7 @@
       <c r="F12" s="14">
         <v>0.85</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="17" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="5">
@@ -2452,41 +1880,41 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:9">
-      <c r="A13" s="15">
+    <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
         <v>1010</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="9">
         <v>1000</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="22" t="s">
+      <c r="F13" s="14"/>
+      <c r="G13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>1002</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="I13" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:9">
-      <c r="A14" s="19">
+    <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
         <v>1011</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="16">
         <v>2700</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -2495,45 +1923,45 @@
       <c r="E14" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="26">
+      <c r="H14" s="20">
         <v>1002</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:9">
-      <c r="A15" s="19">
+    <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
         <v>1012</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="16">
         <v>9000</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="20"/>
+      <c r="G15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="20">
         <v>1002</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>1013</v>
       </c>
@@ -2549,8 +1977,8 @@
       <c r="E16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="22" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H16" s="5">
@@ -2560,14 +1988,14 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:9">
-      <c r="A17" s="19">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
         <v>1014</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="16">
         <v>31500</v>
       </c>
       <c r="D17" s="4" t="s">
@@ -2577,24 +2005,24 @@
         <v>38</v>
       </c>
       <c r="F17" s="14"/>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="20">
         <v>1003</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:9">
-      <c r="A18" s="19">
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
         <v>1015</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="16">
         <v>112000</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -2603,18 +2031,18 @@
       <c r="E18" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="22" t="s">
+      <c r="F18" s="20"/>
+      <c r="G18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="26">
+      <c r="H18" s="20">
         <v>1003</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>1016</v>
       </c>
@@ -2633,7 +2061,7 @@
       <c r="F19" s="5">
         <v>0.4</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H19" s="5">
@@ -2643,14 +2071,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" s="3" customFormat="1" spans="1:9">
-      <c r="A20" s="19">
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
         <v>1017</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="16">
         <v>315000</v>
       </c>
       <c r="D20" s="4" t="s">
@@ -2662,24 +2090,24 @@
       <c r="F20" s="14">
         <v>0.2</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="26">
+      <c r="H20" s="20">
         <v>1004</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:9">
-      <c r="A21" s="19">
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
         <v>1018</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="20">
+      <c r="C21" s="16">
         <v>990000</v>
       </c>
       <c r="D21" s="4" t="s">
@@ -2691,17 +2119,17 @@
       <c r="F21" s="5">
         <v>0.4</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H21" s="26">
+      <c r="H21" s="20">
         <v>1004</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>1019</v>
       </c>
@@ -2720,7 +2148,7 @@
       <c r="F22" s="5">
         <v>0.23</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H22" s="5">
@@ -2730,14 +2158,14 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:9">
-      <c r="A23" s="19">
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15">
         <v>1020</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="16">
         <v>1570000</v>
       </c>
       <c r="D23" s="4" t="s">
@@ -2746,25 +2174,25 @@
       <c r="E23" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="22" t="s">
+      <c r="F23" s="20"/>
+      <c r="G23" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="20">
         <v>1005</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:9">
-      <c r="A24" s="19">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15">
         <v>1021</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="20">
+      <c r="C24" s="16">
         <v>3380000</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -2776,17 +2204,17 @@
       <c r="F24" s="5">
         <v>0.23</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="20">
         <v>1005</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>1022</v>
       </c>
@@ -2802,7 +2230,7 @@
       <c r="E25" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H25" s="5">
@@ -2812,14 +2240,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:9">
-      <c r="A26" s="19">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="15">
         <v>1023</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="16">
         <v>5850000</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -2829,24 +2257,24 @@
         <v>51</v>
       </c>
       <c r="F26" s="14"/>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="26">
+      <c r="H26" s="20">
         <v>1006</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" s="3" customFormat="1" spans="1:9">
-      <c r="A27" s="19">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="15">
         <v>1024</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="20">
+      <c r="C27" s="16">
         <v>9900000</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -2855,18 +2283,18 @@
       <c r="E27" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="22" t="s">
+      <c r="F27" s="20"/>
+      <c r="G27" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="20">
         <v>1006</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>1025</v>
       </c>
@@ -2882,7 +2310,7 @@
       <c r="E28" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="17" t="s">
         <v>118</v>
       </c>
       <c r="H28" s="5">
@@ -2892,14 +2320,14 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:9">
-      <c r="A29" s="19">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="15">
         <v>1026</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="20">
+      <c r="C29" s="16">
         <v>17100000</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -2908,25 +2336,25 @@
       <c r="E29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="22" t="s">
+      <c r="F29" s="20"/>
+      <c r="G29" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H29" s="20">
         <v>1007</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:9">
-      <c r="A30" s="19">
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="15">
         <v>1027</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="16">
         <v>33800000</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -2935,18 +2363,18 @@
       <c r="E30" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="26"/>
-      <c r="G30" s="22" t="s">
+      <c r="F30" s="20"/>
+      <c r="G30" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="26">
+      <c r="H30" s="20">
         <v>1007</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>1028</v>
       </c>
@@ -2962,7 +2390,7 @@
       <c r="E31" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="5">
@@ -2972,14 +2400,14 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" s="3" customFormat="1" spans="1:9">
-      <c r="A32" s="19">
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="15">
         <v>1029</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="16">
         <v>54000000</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -2988,25 +2416,25 @@
       <c r="E32" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="22" t="s">
+      <c r="F32" s="20"/>
+      <c r="G32" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="20">
         <v>1008</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:9">
-      <c r="A33" s="19">
+    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="15">
         <v>1030</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="16">
         <v>83200000</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -3015,18 +2443,18 @@
       <c r="E33" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="22" t="s">
+      <c r="F33" s="20"/>
+      <c r="G33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H33" s="26">
+      <c r="H33" s="20">
         <v>1008</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>1031</v>
       </c>
@@ -3045,7 +2473,7 @@
       <c r="F34" s="5">
         <v>0.83</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="17" t="s">
         <v>34</v>
       </c>
       <c r="H34" s="5">
@@ -3055,14 +2483,14 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" spans="1:9">
-      <c r="A35" s="19">
+    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="15">
         <v>1032</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C35" s="20">
+      <c r="C35" s="16">
         <v>203000000</v>
       </c>
       <c r="D35" s="4" t="s">
@@ -3074,24 +2502,24 @@
       <c r="F35" s="14">
         <v>0.85</v>
       </c>
-      <c r="G35" s="22" t="s">
+      <c r="G35" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="20">
         <v>1009</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" spans="1:9">
-      <c r="A36" s="19">
+    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="15">
         <v>1033</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C36" s="20">
+      <c r="C36" s="16">
         <v>563000000</v>
       </c>
       <c r="D36" s="14" t="s">
@@ -3103,17 +2531,17 @@
       <c r="F36" s="5">
         <v>0.83</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="26">
+      <c r="H36" s="20">
         <v>1009</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>1034</v>
       </c>
@@ -3130,7 +2558,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>2001</v>
       </c>
@@ -3156,14 +2584,14 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" spans="1:9">
-      <c r="A39" s="26">
+    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="20">
         <v>2002</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="20">
+      <c r="C39" s="16">
         <v>67500</v>
       </c>
       <c r="D39" s="4" t="s">
@@ -3172,18 +2600,18 @@
       <c r="E39" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F39" s="26"/>
+      <c r="F39" s="20"/>
       <c r="G39" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="26">
+      <c r="H39" s="20">
         <v>2002</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>2003</v>
       </c>
@@ -3213,14 +2641,14 @@
       </c>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" s="3" customFormat="1" spans="1:9">
-      <c r="A41" s="26">
+    <row r="41" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="20">
         <v>2004</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C41" s="20">
+      <c r="C41" s="16">
         <v>855000</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -3229,20 +2657,20 @@
       <c r="E41" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F41" s="20">
         <v>0.1</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H41" s="20">
         <v>2004</v>
       </c>
-      <c r="I41" s="30" t="s">
+      <c r="I41" s="22" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>2005</v>
       </c>
@@ -3271,14 +2699,14 @@
         <v>167</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="1" spans="1:9">
-      <c r="A43" s="26">
+    <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="20">
         <v>2006</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="16">
         <v>2120000</v>
       </c>
       <c r="D43" s="4" t="s">
@@ -3287,20 +2715,20 @@
       <c r="E43" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="26">
+      <c r="F43" s="20">
         <v>0.1</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H43" s="26">
+      <c r="H43" s="20">
         <v>2005</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>2007</v>
       </c>
@@ -3326,14 +2754,14 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" s="4" customFormat="1" spans="1:9">
+    <row r="45" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>2008</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="16">
         <v>9000000</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -3353,7 +2781,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>2009</v>
       </c>
@@ -3379,14 +2807,14 @@
         <v>181</v>
       </c>
     </row>
-    <row r="47" s="4" customFormat="1" spans="1:9">
+    <row r="47" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>2010</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="16">
         <v>31500000</v>
       </c>
       <c r="D47" s="4" t="s">
@@ -3406,7 +2834,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>2011</v>
       </c>
@@ -3432,14 +2860,14 @@
         <v>188</v>
       </c>
     </row>
-    <row r="49" s="4" customFormat="1" spans="1:9">
+    <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="4">
         <v>2012</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="16">
         <v>90000000</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -3459,7 +2887,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <v>2013</v>
       </c>
@@ -3485,14 +2913,14 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" s="4" customFormat="1" spans="1:9">
+    <row r="51" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="4">
         <v>2014</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="16">
         <v>360000000</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -3512,7 +2940,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" s="5">
         <v>2015</v>
       </c>
@@ -3538,14 +2966,14 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" s="4" customFormat="1" spans="1:9">
+    <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="4">
         <v>2016</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="16">
         <v>3150000000</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -3565,7 +2993,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" s="5">
         <v>2017</v>
       </c>
@@ -3582,7 +3010,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" s="5">
         <v>2018</v>
       </c>
@@ -3599,7 +3027,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" s="5">
         <v>2019</v>
       </c>
@@ -3616,7 +3044,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" s="5">
         <v>2020</v>
       </c>
@@ -3633,11 +3061,11 @@
         <v>220</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" s="5">
         <v>2031</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="13" t="s">
         <v>221</v>
       </c>
       <c r="D58" s="14" t="s">
@@ -3650,7 +3078,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" s="5">
         <v>2021</v>
       </c>
@@ -3667,7 +3095,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" s="5">
         <v>2022</v>
       </c>
@@ -3684,7 +3112,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" s="5">
         <v>2023</v>
       </c>
@@ -3701,7 +3129,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" s="5">
         <v>2024</v>
       </c>
@@ -3718,7 +3146,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" s="5">
         <v>2025</v>
       </c>
@@ -3735,7 +3163,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" s="5">
         <v>2026</v>
       </c>
@@ -3752,7 +3180,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="5">
         <v>2027</v>
       </c>
@@ -3769,7 +3197,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="5">
         <v>2028</v>
       </c>
@@ -3786,7 +3214,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="5">
         <v>2029</v>
       </c>
@@ -3803,7 +3231,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="5">
         <v>2030</v>
       </c>
@@ -3820,7 +3248,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="5">
         <v>3001</v>
       </c>
@@ -3843,7 +3271,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="5">
         <v>3002</v>
       </c>
@@ -3866,7 +3294,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="5">
         <v>3003</v>
       </c>
@@ -3892,7 +3320,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="5">
         <v>3004</v>
       </c>
@@ -3918,7 +3346,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="5">
         <v>3005</v>
       </c>
@@ -3944,7 +3372,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="5">
         <v>3006</v>
       </c>
@@ -3970,7 +3398,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="5">
         <v>3007</v>
       </c>
@@ -3996,7 +3424,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="5">
         <v>3008</v>
       </c>
@@ -4022,7 +3450,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="5">
         <v>3009</v>
       </c>
@@ -4048,7 +3476,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="5">
         <v>3010</v>
       </c>
@@ -4074,7 +3502,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="5">
         <v>3011</v>
       </c>
@@ -4100,7 +3528,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" s="5">
         <v>3012</v>
       </c>
@@ -4126,7 +3554,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" s="5">
         <v>3013</v>
       </c>
@@ -4152,7 +3580,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" s="5">
         <v>3014</v>
       </c>
@@ -4178,7 +3606,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" s="5">
         <v>3015</v>
       </c>
@@ -4204,7 +3632,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" s="5">
         <v>3016</v>
       </c>
@@ -4230,7 +3658,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" s="5">
         <v>3017</v>
       </c>
@@ -4256,7 +3684,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" s="5">
         <v>3018</v>
       </c>
@@ -4282,7 +3710,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" s="5">
         <v>3019</v>
       </c>
@@ -4308,7 +3736,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" s="5">
         <v>3020</v>
       </c>
@@ -4334,7 +3762,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" s="5">
         <v>3021</v>
       </c>
@@ -4360,7 +3788,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" s="5">
         <v>3022</v>
       </c>
@@ -4386,7 +3814,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" s="5">
         <v>3050</v>
       </c>
@@ -4399,12 +3827,11 @@
       <c r="E91" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F91" s="5"/>
       <c r="I91" s="14" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" s="5">
         <v>3051</v>
       </c>
@@ -4417,20 +3844,188 @@
       <c r="E92" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F92" s="5"/>
       <c r="I92" s="14" t="s">
         <v>338</v>
       </c>
     </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="23">
+        <v>4001</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C94" s="24">
+        <v>999999999</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="F94" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G94" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H94" s="23"/>
+      <c r="I94" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="23">
+        <v>4002</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C95" s="24">
+        <v>999999999</v>
+      </c>
+      <c r="D95" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="E95" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="F95" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G95" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H95" s="23"/>
+      <c r="I95" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="23">
+        <v>4003</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C96" s="24">
+        <v>999999999</v>
+      </c>
+      <c r="D96" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="F96" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G96" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H96" s="23"/>
+      <c r="I96" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="23">
+        <v>4004</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="C97" s="24">
+        <v>999999999</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>347</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="F97" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G97" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H97" s="23"/>
+      <c r="I97" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="23">
+        <v>4005</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="C98" s="24">
+        <v>999999999</v>
+      </c>
+      <c r="D98" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="F98" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G98" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H98" s="23"/>
+      <c r="I98" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="23">
+        <v>4006</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="C99" s="24">
+        <v>999999999</v>
+      </c>
+      <c r="D99" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="F99" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="G99" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H99" s="23"/>
+      <c r="I99" t="s">
+        <v>220</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" insertHyperlinks="0" autoFilter="0"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -4444,15 +4039,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4461,7 +4049,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
+++ b/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BCD95B-43A8-4970-B83C-3C35B2F7C225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC178447-EB41-4F28-9B4F-EEA4B25C9B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="353">
   <si>
     <t>int</t>
   </si>
@@ -506,9 +506,6 @@
   </si>
   <si>
     <t>第二世界蛋2-1</t>
-  </si>
-  <si>
-    <t>585|586|587|588|589|590|591</t>
   </si>
   <si>
     <t>04150106|219911E3</t>
@@ -1088,6 +1085,14 @@
   </si>
   <si>
     <t>26|1018|1029|538|1239|1240|1241|1242|1243|1244|1245</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>585|586|587|588|589|590|591</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>38|38|11|11|0.95|0.15</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1096,7 +1101,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="196" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1199,7 +1204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1208,12 +1213,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="196" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1222,7 +1227,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="196" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1232,7 +1237,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1246,11 +1251,12 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="196" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1528,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H98" sqref="H98"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2651,11 +2657,11 @@
       <c r="C41" s="16">
         <v>855000</v>
       </c>
-      <c r="D41" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>159</v>
+      <c r="D41" s="27" t="s">
+        <v>351</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>352</v>
       </c>
       <c r="F41" s="20">
         <v>0.1</v>
@@ -2667,7 +2673,7 @@
         <v>2004</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -2675,16 +2681,16 @@
         <v>2005</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" s="9">
         <v>235000</v>
       </c>
       <c r="D42" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="14" t="s">
         <v>165</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>166</v>
       </c>
       <c r="F42" s="5">
         <v>0.1</v>
@@ -2696,7 +2702,7 @@
         <v>2005</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2704,16 +2710,16 @@
         <v>2006</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C43" s="16">
         <v>2120000</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F43" s="20">
         <v>0.1</v>
@@ -2725,7 +2731,7 @@
         <v>2005</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -2733,16 +2739,16 @@
         <v>2007</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C44" s="6">
         <v>1000000</v>
       </c>
       <c r="D44" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="14" t="s">
         <v>172</v>
-      </c>
-      <c r="E44" s="14" t="s">
-        <v>173</v>
       </c>
       <c r="F44" s="5">
         <v>0.82</v>
@@ -2751,7 +2757,7 @@
         <v>2006</v>
       </c>
       <c r="I44" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2759,16 +2765,16 @@
         <v>2008</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C45" s="16">
         <v>9000000</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F45" s="4">
         <v>0.82</v>
@@ -2778,7 +2784,7 @@
         <v>2006</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
@@ -2786,16 +2792,16 @@
         <v>2009</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C46" s="6">
         <v>3500000</v>
       </c>
       <c r="D46" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E46" s="14" t="s">
         <v>179</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>180</v>
       </c>
       <c r="F46" s="5">
         <v>0.1</v>
@@ -2804,7 +2810,7 @@
         <v>2007</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2812,16 +2818,16 @@
         <v>2010</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C47" s="16">
         <v>31500000</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F47" s="4">
         <v>0.1</v>
@@ -2831,7 +2837,7 @@
         <v>2007</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -2839,16 +2845,16 @@
         <v>2011</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C48" s="6">
         <v>10000000</v>
       </c>
       <c r="D48" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>187</v>
       </c>
       <c r="F48" s="5">
         <v>0.2</v>
@@ -2857,7 +2863,7 @@
         <v>2008</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2865,16 +2871,16 @@
         <v>2012</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C49" s="16">
         <v>90000000</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F49" s="4">
         <v>0.2</v>
@@ -2884,7 +2890,7 @@
         <v>2008</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.35">
@@ -2892,16 +2898,16 @@
         <v>2013</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C50" s="6">
         <v>30000000</v>
       </c>
       <c r="D50" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" s="14" t="s">
         <v>193</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>194</v>
       </c>
       <c r="F50" s="5">
         <v>0.1</v>
@@ -2910,7 +2916,7 @@
         <v>2009</v>
       </c>
       <c r="I50" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2918,16 +2924,16 @@
         <v>2014</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C51" s="16">
         <v>360000000</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F51" s="4">
         <v>0.1</v>
@@ -2937,7 +2943,7 @@
         <v>2009</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.35">
@@ -2945,16 +2951,16 @@
         <v>2015</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C52" s="6">
         <v>350000000</v>
       </c>
       <c r="D52" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E52" s="14" t="s">
         <v>200</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>201</v>
       </c>
       <c r="F52" s="5">
         <v>0.1</v>
@@ -2963,7 +2969,7 @@
         <v>2010</v>
       </c>
       <c r="I52" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2971,16 +2977,16 @@
         <v>2016</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C53" s="16">
         <v>3150000000</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F53" s="4">
         <v>0.1</v>
@@ -2990,7 +2996,7 @@
         <v>2010</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.35">
@@ -2998,16 +3004,16 @@
         <v>2017</v>
       </c>
       <c r="B54" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="E54" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="I54" s="14" t="s">
         <v>208</v>
-      </c>
-      <c r="I54" s="14" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.35">
@@ -3015,16 +3021,16 @@
         <v>2018</v>
       </c>
       <c r="B55" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D55" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="D55" s="14" t="s">
+      <c r="E55" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="E55" s="14" t="s">
+      <c r="I55" s="14" t="s">
         <v>212</v>
-      </c>
-      <c r="I55" s="14" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.35">
@@ -3032,16 +3038,16 @@
         <v>2019</v>
       </c>
       <c r="B56" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D56" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="D56" s="14" t="s">
+      <c r="E56" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="I56" s="14" t="s">
         <v>215</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="I56" s="14" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.35">
@@ -3049,16 +3055,16 @@
         <v>2020</v>
       </c>
       <c r="B57" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D57" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="D57" s="14" t="s">
+      <c r="E57" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="I57" s="14" t="s">
         <v>219</v>
-      </c>
-      <c r="I57" s="14" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.35">
@@ -3066,16 +3072,16 @@
         <v>2031</v>
       </c>
       <c r="B58" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="D58" s="14" t="s">
-        <v>222</v>
-      </c>
       <c r="E58" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I58" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.35">
@@ -3083,16 +3089,16 @@
         <v>2021</v>
       </c>
       <c r="B59" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D59" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="D59" s="14" t="s">
+      <c r="E59" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E59" s="14" t="s">
+      <c r="I59" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="I59" s="14" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.35">
@@ -3100,16 +3106,16 @@
         <v>2022</v>
       </c>
       <c r="B60" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D60" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="D60" s="14" t="s">
+      <c r="E60" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="I60" s="14" t="s">
         <v>228</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="I60" s="14" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.35">
@@ -3117,16 +3123,16 @@
         <v>2023</v>
       </c>
       <c r="B61" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D61" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="E61" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="I61" s="14" t="s">
         <v>231</v>
-      </c>
-      <c r="E61" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="I61" s="14" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.35">
@@ -3134,16 +3140,16 @@
         <v>2024</v>
       </c>
       <c r="B62" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="D62" s="14" t="s">
+      <c r="E62" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="I62" s="14" t="s">
         <v>234</v>
-      </c>
-      <c r="E62" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="I62" s="14" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
@@ -3151,16 +3157,16 @@
         <v>2025</v>
       </c>
       <c r="B63" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="I63" s="14" t="s">
         <v>236</v>
-      </c>
-      <c r="D63" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="E63" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="I63" s="14" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
@@ -3168,16 +3174,16 @@
         <v>2026</v>
       </c>
       <c r="B64" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="E64" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="I64" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="I64" s="14" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
@@ -3185,16 +3191,16 @@
         <v>2027</v>
       </c>
       <c r="B65" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65" s="14" t="s">
         <v>241</v>
-      </c>
-      <c r="D65" s="14" t="s">
-        <v>242</v>
       </c>
       <c r="E65" s="14" t="s">
         <v>148</v>
       </c>
       <c r="I65" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
@@ -3202,16 +3208,16 @@
         <v>2028</v>
       </c>
       <c r="B66" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="D66" s="14" t="s">
-        <v>245</v>
       </c>
       <c r="E66" s="14" t="s">
         <v>148</v>
       </c>
       <c r="I66" s="14" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
@@ -3219,16 +3225,16 @@
         <v>2029</v>
       </c>
       <c r="B67" s="14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D67" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="D67" s="14" t="s">
+      <c r="E67" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="I67" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="I67" s="14" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
@@ -3236,16 +3242,16 @@
         <v>2030</v>
       </c>
       <c r="B68" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D68" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="E68" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="E68" s="14" t="s">
+      <c r="I68" s="14" t="s">
         <v>253</v>
-      </c>
-      <c r="I68" s="14" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
@@ -3253,22 +3259,22 @@
         <v>3001</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C69" s="6">
         <v>3000</v>
       </c>
       <c r="D69" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E69" s="14" t="s">
         <v>256</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>257</v>
       </c>
       <c r="H69" s="5">
         <v>3001</v>
       </c>
       <c r="I69" s="14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
@@ -3276,22 +3282,22 @@
         <v>3002</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C70" s="6">
         <v>27000</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H70" s="5">
         <v>3001</v>
       </c>
       <c r="I70" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -3299,16 +3305,16 @@
         <v>3003</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C71" s="6">
         <v>10500</v>
       </c>
       <c r="D71" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="E71" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>264</v>
       </c>
       <c r="F71" s="5">
         <v>0.1</v>
@@ -3317,7 +3323,7 @@
         <v>3001</v>
       </c>
       <c r="I71" s="14" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
@@ -3325,16 +3331,16 @@
         <v>3004</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C72" s="6">
         <v>94500</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F72" s="5">
         <v>0.1</v>
@@ -3343,7 +3349,7 @@
         <v>3001</v>
       </c>
       <c r="I72" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
@@ -3351,16 +3357,16 @@
         <v>3005</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C73" s="6">
         <v>32500</v>
       </c>
       <c r="D73" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E73" s="14" t="s">
         <v>270</v>
-      </c>
-      <c r="E73" s="14" t="s">
-        <v>271</v>
       </c>
       <c r="F73" s="5">
         <v>0.01</v>
@@ -3369,7 +3375,7 @@
         <v>3003</v>
       </c>
       <c r="I73" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
@@ -3377,16 +3383,16 @@
         <v>3006</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C74" s="6">
         <v>292500</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E74" s="14" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F74" s="5">
         <v>0.01</v>
@@ -3395,7 +3401,7 @@
         <v>3003</v>
       </c>
       <c r="I74" s="14" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
@@ -3403,16 +3409,16 @@
         <v>3007</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C75" s="6">
         <v>115000</v>
       </c>
       <c r="D75" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="E75" s="14" t="s">
         <v>277</v>
-      </c>
-      <c r="E75" s="14" t="s">
-        <v>278</v>
       </c>
       <c r="F75" s="5">
         <v>0.01</v>
@@ -3421,7 +3427,7 @@
         <v>3003</v>
       </c>
       <c r="I75" s="14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
@@ -3429,16 +3435,16 @@
         <v>3008</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C76" s="6">
         <v>1035000</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F76" s="5">
         <v>0.01</v>
@@ -3447,7 +3453,7 @@
         <v>3003</v>
       </c>
       <c r="I76" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
@@ -3455,16 +3461,16 @@
         <v>3009</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C77" s="6">
         <v>475000</v>
       </c>
       <c r="D77" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="E77" s="14" t="s">
         <v>284</v>
-      </c>
-      <c r="E77" s="14" t="s">
-        <v>285</v>
       </c>
       <c r="F77" s="5">
         <v>0.01</v>
@@ -3473,7 +3479,7 @@
         <v>3004</v>
       </c>
       <c r="I77" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
@@ -3481,16 +3487,16 @@
         <v>3010</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C78" s="6">
         <v>4275000</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F78" s="5">
         <v>0.01</v>
@@ -3499,7 +3505,7 @@
         <v>3004</v>
       </c>
       <c r="I78" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
@@ -3507,16 +3513,16 @@
         <v>3011</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C79" s="6">
         <v>1650000</v>
       </c>
       <c r="D79" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="E79" s="14" t="s">
         <v>291</v>
-      </c>
-      <c r="E79" s="14" t="s">
-        <v>292</v>
       </c>
       <c r="F79" s="5">
         <v>0.01</v>
@@ -3525,7 +3531,7 @@
         <v>3005</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
@@ -3533,16 +3539,16 @@
         <v>3012</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C80" s="6">
         <v>14850000</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E80" s="14" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F80" s="5">
         <v>0.01</v>
@@ -3551,7 +3557,7 @@
         <v>3005</v>
       </c>
       <c r="I80" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.35">
@@ -3559,16 +3565,16 @@
         <v>3013</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C81" s="6">
         <v>5000000</v>
       </c>
       <c r="D81" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="E81" s="14" t="s">
         <v>298</v>
-      </c>
-      <c r="E81" s="14" t="s">
-        <v>299</v>
       </c>
       <c r="F81" s="5">
         <v>0.01</v>
@@ -3577,7 +3583,7 @@
         <v>3006</v>
       </c>
       <c r="I81" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.35">
@@ -3585,16 +3591,16 @@
         <v>3014</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C82" s="6">
         <v>45000000</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E82" s="14" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F82" s="5">
         <v>0.01</v>
@@ -3603,7 +3609,7 @@
         <v>3006</v>
       </c>
       <c r="I82" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.35">
@@ -3611,16 +3617,16 @@
         <v>3015</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C83" s="6">
         <v>12500000</v>
       </c>
       <c r="D83" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="E83" s="14" t="s">
         <v>305</v>
-      </c>
-      <c r="E83" s="14" t="s">
-        <v>306</v>
       </c>
       <c r="F83" s="5">
         <v>0.01</v>
@@ -3629,7 +3635,7 @@
         <v>3006</v>
       </c>
       <c r="I83" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.35">
@@ -3637,16 +3643,16 @@
         <v>3016</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C84" s="6">
         <v>113000000</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F84" s="5">
         <v>0.01</v>
@@ -3655,7 +3661,7 @@
         <v>3006</v>
       </c>
       <c r="I84" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.35">
@@ -3663,16 +3669,16 @@
         <v>3017</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C85" s="6">
         <v>24000000</v>
       </c>
       <c r="D85" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="E85" s="14" t="s">
         <v>312</v>
-      </c>
-      <c r="E85" s="14" t="s">
-        <v>313</v>
       </c>
       <c r="F85" s="5">
         <v>0.01</v>
@@ -3681,7 +3687,7 @@
         <v>3007</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.35">
@@ -3689,16 +3695,16 @@
         <v>3018</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C86" s="6">
         <v>216000000</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E86" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F86" s="5">
         <v>0.01</v>
@@ -3707,7 +3713,7 @@
         <v>3007</v>
       </c>
       <c r="I86" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.35">
@@ -3715,16 +3721,16 @@
         <v>3019</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C87" s="6">
         <v>62500000</v>
       </c>
       <c r="D87" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="E87" s="14" t="s">
         <v>319</v>
-      </c>
-      <c r="E87" s="14" t="s">
-        <v>320</v>
       </c>
       <c r="F87" s="5">
         <v>0.01</v>
@@ -3733,7 +3739,7 @@
         <v>3007</v>
       </c>
       <c r="I87" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.35">
@@ -3741,16 +3747,16 @@
         <v>3020</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C88" s="6">
         <v>562000000</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E88" s="14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F88" s="5">
         <v>0.01</v>
@@ -3759,7 +3765,7 @@
         <v>3007</v>
       </c>
       <c r="I88" s="14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.35">
@@ -3767,16 +3773,16 @@
         <v>3021</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C89" s="6">
         <v>172000000</v>
       </c>
       <c r="D89" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="E89" s="14" t="s">
         <v>326</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>327</v>
       </c>
       <c r="F89" s="5">
         <v>0.01</v>
@@ -3785,7 +3791,7 @@
         <v>3008</v>
       </c>
       <c r="I89" s="14" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.35">
@@ -3793,16 +3799,16 @@
         <v>3022</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C90" s="6">
         <v>1550000000</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E90" s="14" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F90" s="5">
         <v>0.01</v>
@@ -3811,7 +3817,7 @@
         <v>3008</v>
       </c>
       <c r="I90" s="14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.35">
@@ -3819,16 +3825,16 @@
         <v>3050</v>
       </c>
       <c r="B91" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="D91" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="D91" s="14" t="s">
+      <c r="E91" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="E91" s="14" t="s">
+      <c r="I91" s="14" t="s">
         <v>334</v>
-      </c>
-      <c r="I91" s="14" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.35">
@@ -3836,16 +3842,16 @@
         <v>3051</v>
       </c>
       <c r="B92" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D92" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="E92" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="I92" s="14" t="s">
         <v>337</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="I92" s="14" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.35">
@@ -3853,26 +3859,24 @@
         <v>4001</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C94" s="24">
         <v>999999999</v>
       </c>
       <c r="D94" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="E94" s="23" t="s">
         <v>340</v>
       </c>
-      <c r="E94" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="F94" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="F94" s="23"/>
       <c r="G94" s="26" t="s">
         <v>39</v>
       </c>
       <c r="H94" s="23"/>
       <c r="I94" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3880,26 +3884,24 @@
         <v>4002</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C95" s="24">
         <v>999999999</v>
       </c>
       <c r="D95" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E95" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="F95" s="23">
-        <v>0.1</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F95" s="23"/>
       <c r="G95" s="26" t="s">
         <v>39</v>
       </c>
       <c r="H95" s="23"/>
       <c r="I95" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3907,26 +3909,24 @@
         <v>4003</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C96" s="24">
         <v>999999999</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E96" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="F96" s="23">
-        <v>0.1</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F96" s="23"/>
       <c r="G96" s="26" t="s">
         <v>39</v>
       </c>
       <c r="H96" s="23"/>
       <c r="I96" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3934,26 +3934,24 @@
         <v>4004</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C97" s="24">
         <v>999999999</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="F97" s="23">
-        <v>0.1</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F97" s="23"/>
       <c r="G97" s="26" t="s">
         <v>39</v>
       </c>
       <c r="H97" s="23"/>
       <c r="I97" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3961,26 +3959,24 @@
         <v>4005</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C98" s="24">
         <v>999999999</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="F98" s="23">
-        <v>0.1</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F98" s="23"/>
       <c r="G98" s="26" t="s">
         <v>39</v>
       </c>
       <c r="H98" s="23"/>
       <c r="I98" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -3988,26 +3984,24 @@
         <v>4006</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C99" s="24">
         <v>999999999</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="F99" s="23">
-        <v>0.1</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F99" s="23"/>
       <c r="G99" s="26" t="s">
         <v>39</v>
       </c>
       <c r="H99" s="23"/>
       <c r="I99" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4019,13 +4013,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -4039,8 +4026,15 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4049,7 +4043,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
+++ b/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC178447-EB41-4F28-9B4F-EEA4B25C9B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F18A9F4-CED6-417B-8396-5431E015D7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1119,11 +1119,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1534,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -3876,7 +3878,7 @@
       </c>
       <c r="H94" s="23"/>
       <c r="I94" t="s">
-        <v>208</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.35">
@@ -3901,7 +3903,7 @@
       </c>
       <c r="H95" s="23"/>
       <c r="I95" t="s">
-        <v>212</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.35">
@@ -3926,7 +3928,7 @@
       </c>
       <c r="H96" s="23"/>
       <c r="I96" t="s">
-        <v>219</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.35">
@@ -3951,7 +3953,7 @@
       </c>
       <c r="H97" s="23"/>
       <c r="I97" t="s">
-        <v>208</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.35">
@@ -3976,7 +3978,7 @@
       </c>
       <c r="H98" s="23"/>
       <c r="I98" t="s">
-        <v>212</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.35">
@@ -4001,7 +4003,7 @@
       </c>
       <c r="H99" s="23"/>
       <c r="I99" t="s">
-        <v>219</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4013,6 +4015,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -4026,15 +4035,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4043,7 +4045,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
+++ b/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F18A9F4-CED6-417B-8396-5431E015D7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055A6DCD-A9C4-4B32-A3EC-E6E652497C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -1536,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -4015,13 +4015,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -4035,8 +4028,15 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4045,7 +4045,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
+++ b/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055A6DCD-A9C4-4B32-A3EC-E6E652497C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF69230-9D8E-4DF9-82FF-3ADB41558185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1068,10 +1068,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>23|548|563|1225|1226|1227|1228|1229|1230|1231</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>至尊光龙蛋</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -1093,6 +1089,10 @@
   </si>
   <si>
     <t>38|38|11|11|0.95|0.15</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>23|199|548|563|1225|1226|1227|1228|1229|1230|1231</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1537,7 +1537,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I119" sqref="I119"/>
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2660,10 +2660,10 @@
         <v>855000</v>
       </c>
       <c r="D41" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="E41" s="27" t="s">
         <v>351</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>352</v>
       </c>
       <c r="F41" s="20">
         <v>0.1</v>
@@ -3942,7 +3942,7 @@
         <v>999999999</v>
       </c>
       <c r="D97" s="25" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="E97" s="23" t="s">
         <v>340</v>
@@ -3961,13 +3961,13 @@
         <v>4005</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C98" s="24">
         <v>999999999</v>
       </c>
       <c r="D98" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E98" s="23" t="s">
         <v>340</v>
@@ -3986,13 +3986,13 @@
         <v>4006</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C99" s="24">
         <v>999999999</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E99" s="23" t="s">
         <v>340</v>
@@ -4015,6 +4015,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -4028,15 +4035,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4045,7 +4045,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
+++ b/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\pet-simulator\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF69230-9D8E-4DF9-82FF-3ADB41558185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66F71A2-CDC6-4C74-915A-256086716126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1536,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I116" sqref="I116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2556,6 +2556,9 @@
       <c r="B37" s="14" t="s">
         <v>146</v>
       </c>
+      <c r="C37" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D37" s="14" t="s">
         <v>147</v>
       </c>
@@ -3008,6 +3011,9 @@
       <c r="B54" s="14" t="s">
         <v>205</v>
       </c>
+      <c r="C54" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D54" s="14" t="s">
         <v>206</v>
       </c>
@@ -3025,6 +3031,9 @@
       <c r="B55" s="14" t="s">
         <v>209</v>
       </c>
+      <c r="C55" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D55" s="14" t="s">
         <v>210</v>
       </c>
@@ -3042,6 +3051,9 @@
       <c r="B56" s="14" t="s">
         <v>213</v>
       </c>
+      <c r="C56" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D56" s="14" t="s">
         <v>214</v>
       </c>
@@ -3059,6 +3071,9 @@
       <c r="B57" s="14" t="s">
         <v>216</v>
       </c>
+      <c r="C57" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D57" s="14" t="s">
         <v>217</v>
       </c>
@@ -3076,6 +3091,9 @@
       <c r="B58" s="13" t="s">
         <v>220</v>
       </c>
+      <c r="C58" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D58" s="14" t="s">
         <v>221</v>
       </c>
@@ -3093,6 +3111,9 @@
       <c r="B59" s="13" t="s">
         <v>222</v>
       </c>
+      <c r="C59" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D59" s="14" t="s">
         <v>223</v>
       </c>
@@ -3110,6 +3131,9 @@
       <c r="B60" s="13" t="s">
         <v>226</v>
       </c>
+      <c r="C60" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D60" s="14" t="s">
         <v>227</v>
       </c>
@@ -3127,6 +3151,9 @@
       <c r="B61" s="13" t="s">
         <v>229</v>
       </c>
+      <c r="C61" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D61" s="14" t="s">
         <v>230</v>
       </c>
@@ -3144,6 +3171,9 @@
       <c r="B62" s="14" t="s">
         <v>232</v>
       </c>
+      <c r="C62" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D62" s="14" t="s">
         <v>233</v>
       </c>
@@ -3161,6 +3191,9 @@
       <c r="B63" s="14" t="s">
         <v>235</v>
       </c>
+      <c r="C63" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D63" s="14" t="s">
         <v>192</v>
       </c>
@@ -3178,6 +3211,9 @@
       <c r="B64" s="14" t="s">
         <v>237</v>
       </c>
+      <c r="C64" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D64" s="14" t="s">
         <v>238</v>
       </c>
@@ -3195,6 +3231,9 @@
       <c r="B65" s="14" t="s">
         <v>240</v>
       </c>
+      <c r="C65" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D65" s="14" t="s">
         <v>241</v>
       </c>
@@ -3212,6 +3251,9 @@
       <c r="B66" s="14" t="s">
         <v>243</v>
       </c>
+      <c r="C66" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D66" s="14" t="s">
         <v>244</v>
       </c>
@@ -3229,6 +3271,9 @@
       <c r="B67" s="14" t="s">
         <v>246</v>
       </c>
+      <c r="C67" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D67" s="14" t="s">
         <v>247</v>
       </c>
@@ -3246,6 +3291,9 @@
       <c r="B68" s="14" t="s">
         <v>250</v>
       </c>
+      <c r="C68" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D68" s="14" t="s">
         <v>251</v>
       </c>
@@ -3829,6 +3877,9 @@
       <c r="B91" s="14" t="s">
         <v>331</v>
       </c>
+      <c r="C91" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D91" s="14" t="s">
         <v>332</v>
       </c>
@@ -3846,6 +3897,9 @@
       <c r="B92" s="14" t="s">
         <v>335</v>
       </c>
+      <c r="C92" s="24">
+        <v>9999999999</v>
+      </c>
       <c r="D92" s="14" t="s">
         <v>336</v>
       </c>
@@ -3864,7 +3918,7 @@
         <v>338</v>
       </c>
       <c r="C94" s="24">
-        <v>999999999</v>
+        <v>9999999999</v>
       </c>
       <c r="D94" s="25" t="s">
         <v>339</v>
@@ -3889,7 +3943,7 @@
         <v>341</v>
       </c>
       <c r="C95" s="24">
-        <v>999999999</v>
+        <v>9999999999</v>
       </c>
       <c r="D95" s="25" t="s">
         <v>342</v>
@@ -3914,7 +3968,7 @@
         <v>343</v>
       </c>
       <c r="C96" s="24">
-        <v>999999999</v>
+        <v>9999999999</v>
       </c>
       <c r="D96" s="25" t="s">
         <v>344</v>
@@ -3939,7 +3993,7 @@
         <v>345</v>
       </c>
       <c r="C97" s="24">
-        <v>999999999</v>
+        <v>9999999999</v>
       </c>
       <c r="D97" s="25" t="s">
         <v>352</v>
@@ -3964,7 +4018,7 @@
         <v>346</v>
       </c>
       <c r="C98" s="24">
-        <v>999999999</v>
+        <v>9999999999</v>
       </c>
       <c r="D98" s="25" t="s">
         <v>347</v>
@@ -3989,7 +4043,7 @@
         <v>348</v>
       </c>
       <c r="C99" s="24">
-        <v>999999999</v>
+        <v>9999999999</v>
       </c>
       <c r="D99" s="25" t="s">
         <v>349</v>
@@ -4015,13 +4069,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -4035,8 +4082,15 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4045,7 +4099,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
+++ b/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66F71A2-CDC6-4C74-915A-256086716126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E776CC66-7547-49C3-B151-09CB8D44B13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1100,8 +1111,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;?_ ;_ @_ "/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1206,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1259,6 +1271,7 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1537,7 +1550,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1551,6 +1564,7 @@
     <col min="7" max="7" width="49.5703125" style="7" customWidth="1"/>
     <col min="8" max="8" width="19" style="5" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="1022" max="1022" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1676,7 +1690,7 @@
         <v>31</v>
       </c>
       <c r="C5" s="9">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>32</v>
@@ -1694,6 +1708,7 @@
       <c r="I5" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
@@ -1703,7 +1718,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="9">
-        <v>4500</v>
+        <v>2250</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>37</v>
@@ -1721,6 +1736,7 @@
       <c r="I6" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
@@ -1730,7 +1746,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="9">
-        <v>35000</v>
+        <v>17500</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>42</v>
@@ -1750,6 +1766,7 @@
       <c r="I7" s="14" t="s">
         <v>44</v>
       </c>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
@@ -1759,7 +1776,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="9">
-        <v>175000</v>
+        <v>87500</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>46</v>
@@ -1777,6 +1794,7 @@
       <c r="I8" s="14" t="s">
         <v>48</v>
       </c>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
@@ -1786,7 +1804,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="9">
-        <v>650000</v>
+        <v>325000</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>50</v>
@@ -1804,6 +1822,7 @@
       <c r="I9" s="14" t="s">
         <v>52</v>
       </c>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
@@ -1813,7 +1832,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="9">
-        <v>1900000</v>
+        <v>950000</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>54</v>
@@ -1831,6 +1850,7 @@
       <c r="I10" s="14" t="s">
         <v>56</v>
       </c>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
@@ -1840,7 +1860,7 @@
         <v>57</v>
       </c>
       <c r="C11" s="9">
-        <v>6000000</v>
+        <v>3000000</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>58</v>
@@ -1858,6 +1878,7 @@
       <c r="I11" s="14" t="s">
         <v>60</v>
       </c>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
@@ -1867,7 +1888,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="6">
-        <v>22500000</v>
+        <v>11250000</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>62</v>
@@ -1887,6 +1908,7 @@
       <c r="I12" s="14" t="s">
         <v>64</v>
       </c>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
@@ -1896,7 +1918,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="9">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>66</v>
@@ -1914,6 +1936,7 @@
       <c r="I13" s="14" t="s">
         <v>68</v>
       </c>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="15">
@@ -1923,7 +1946,7 @@
         <v>69</v>
       </c>
       <c r="C14" s="16">
-        <v>2700</v>
+        <v>1350</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>70</v>
@@ -1941,6 +1964,7 @@
       <c r="I14" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15">
@@ -1950,7 +1974,7 @@
         <v>72</v>
       </c>
       <c r="C15" s="16">
-        <v>9000</v>
+        <v>4500</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>73</v>
@@ -1968,6 +1992,7 @@
       <c r="I15" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="L15" s="28"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
@@ -1977,7 +2002,7 @@
         <v>75</v>
       </c>
       <c r="C16" s="9">
-        <v>12500</v>
+        <v>6250</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>76</v>
@@ -1995,8 +2020,9 @@
       <c r="I16" s="14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L16" s="28"/>
+    </row>
+    <row r="17" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15">
         <v>1014</v>
       </c>
@@ -2004,7 +2030,7 @@
         <v>79</v>
       </c>
       <c r="C17" s="16">
-        <v>31500</v>
+        <v>15750</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>80</v>
@@ -2022,8 +2048,9 @@
       <c r="I17" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="28"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="15">
         <v>1015</v>
       </c>
@@ -2031,7 +2058,7 @@
         <v>82</v>
       </c>
       <c r="C18" s="16">
-        <v>112000</v>
+        <v>56000</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>83</v>
@@ -2049,8 +2076,9 @@
       <c r="I18" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L18" s="28"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>1016</v>
       </c>
@@ -2058,7 +2086,7 @@
         <v>85</v>
       </c>
       <c r="C19" s="9">
-        <v>110000</v>
+        <v>55000</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>86</v>
@@ -2078,8 +2106,9 @@
       <c r="I19" s="14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="28"/>
+    </row>
+    <row r="20" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15">
         <v>1017</v>
       </c>
@@ -2087,7 +2116,7 @@
         <v>89</v>
       </c>
       <c r="C20" s="16">
-        <v>315000</v>
+        <v>157500</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>90</v>
@@ -2107,8 +2136,9 @@
       <c r="I20" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="28"/>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15">
         <v>1018</v>
       </c>
@@ -2116,7 +2146,7 @@
         <v>92</v>
       </c>
       <c r="C21" s="16">
-        <v>990000</v>
+        <v>495000</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>93</v>
@@ -2136,8 +2166,9 @@
       <c r="I21" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L21" s="28"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="8">
         <v>1019</v>
       </c>
@@ -2145,7 +2176,7 @@
         <v>95</v>
       </c>
       <c r="C22" s="9">
-        <v>375000</v>
+        <v>187500</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>96</v>
@@ -2165,8 +2196,9 @@
       <c r="I22" s="14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="28"/>
+    </row>
+    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15">
         <v>1020</v>
       </c>
@@ -2174,7 +2206,7 @@
         <v>99</v>
       </c>
       <c r="C23" s="16">
-        <v>1570000</v>
+        <v>785000</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>100</v>
@@ -2192,8 +2224,9 @@
       <c r="I23" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L23" s="28"/>
+    </row>
+    <row r="24" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15">
         <v>1021</v>
       </c>
@@ -2201,7 +2234,7 @@
         <v>102</v>
       </c>
       <c r="C24" s="16">
-        <v>3380000</v>
+        <v>1690000</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>103</v>
@@ -2221,8 +2254,9 @@
       <c r="I24" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L24" s="28"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="8">
         <v>1022</v>
       </c>
@@ -2230,7 +2264,7 @@
         <v>105</v>
       </c>
       <c r="C25" s="9">
-        <v>1100000</v>
+        <v>550000</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>106</v>
@@ -2247,8 +2281,9 @@
       <c r="I25" s="14" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="28"/>
+    </row>
+    <row r="26" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>1023</v>
       </c>
@@ -2256,7 +2291,7 @@
         <v>109</v>
       </c>
       <c r="C26" s="16">
-        <v>5850000</v>
+        <v>2925000</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>110</v>
@@ -2274,8 +2309,9 @@
       <c r="I26" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L26" s="28"/>
+    </row>
+    <row r="27" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15">
         <v>1024</v>
       </c>
@@ -2283,7 +2319,7 @@
         <v>112</v>
       </c>
       <c r="C27" s="16">
-        <v>9900000</v>
+        <v>4950000</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>113</v>
@@ -2301,8 +2337,9 @@
       <c r="I27" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L27" s="28"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="8">
         <v>1025</v>
       </c>
@@ -2310,7 +2347,7 @@
         <v>115</v>
       </c>
       <c r="C28" s="9">
-        <v>3750000</v>
+        <v>1875000</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>116</v>
@@ -2327,8 +2364,9 @@
       <c r="I28" s="14" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L28" s="28"/>
+    </row>
+    <row r="29" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15">
         <v>1026</v>
       </c>
@@ -2336,7 +2374,7 @@
         <v>120</v>
       </c>
       <c r="C29" s="16">
-        <v>17100000</v>
+        <v>8550000</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>121</v>
@@ -2354,8 +2392,9 @@
       <c r="I29" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <v>1027</v>
       </c>
@@ -2363,7 +2402,7 @@
         <v>123</v>
       </c>
       <c r="C30" s="16">
-        <v>33800000</v>
+        <v>16900000</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>124</v>
@@ -2381,8 +2420,9 @@
       <c r="I30" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="L30" s="28"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="8">
         <v>1028</v>
       </c>
@@ -2390,7 +2430,7 @@
         <v>126</v>
       </c>
       <c r="C31" s="9">
-        <v>9250000</v>
+        <v>4625000</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>127</v>
@@ -2407,8 +2447,9 @@
       <c r="I31" s="14" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L31" s="28"/>
+    </row>
+    <row r="32" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <v>1029</v>
       </c>
@@ -2416,7 +2457,7 @@
         <v>130</v>
       </c>
       <c r="C32" s="16">
-        <v>54000000</v>
+        <v>27000000</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>131</v>
@@ -2434,8 +2475,9 @@
       <c r="I32" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L32" s="28"/>
+    </row>
+    <row r="33" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="15">
         <v>1030</v>
       </c>
@@ -2443,7 +2485,7 @@
         <v>133</v>
       </c>
       <c r="C33" s="16">
-        <v>83200000</v>
+        <v>41600000</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>134</v>
@@ -2461,8 +2503,9 @@
       <c r="I33" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L33" s="28"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="8">
         <v>1031</v>
       </c>
@@ -2470,7 +2513,7 @@
         <v>136</v>
       </c>
       <c r="C34" s="9">
-        <v>80000000</v>
+        <v>40000000</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>137</v>
@@ -2490,8 +2533,9 @@
       <c r="I34" s="14" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L34" s="28"/>
+    </row>
+    <row r="35" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="15">
         <v>1032</v>
       </c>
@@ -2499,7 +2543,7 @@
         <v>140</v>
       </c>
       <c r="C35" s="16">
-        <v>203000000</v>
+        <v>101500000</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>141</v>
@@ -2519,8 +2563,9 @@
       <c r="I35" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L35" s="28"/>
+    </row>
+    <row r="36" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <v>1033</v>
       </c>
@@ -2528,7 +2573,7 @@
         <v>143</v>
       </c>
       <c r="C36" s="16">
-        <v>563000000</v>
+        <v>281500000</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>144</v>
@@ -2548,8 +2593,9 @@
       <c r="I36" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L36" s="28"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <v>1034</v>
       </c>
@@ -2569,7 +2615,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <v>2001</v>
       </c>
@@ -2577,7 +2623,7 @@
         <v>150</v>
       </c>
       <c r="C38" s="9">
-        <v>7500</v>
+        <v>2625</v>
       </c>
       <c r="D38" s="14" t="s">
         <v>151</v>
@@ -2594,8 +2640,9 @@
       <c r="I38" s="14" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L38" s="28"/>
+    </row>
+    <row r="39" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="20">
         <v>2002</v>
       </c>
@@ -2603,7 +2650,7 @@
         <v>154</v>
       </c>
       <c r="C39" s="16">
-        <v>67500</v>
+        <v>23625</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>155</v>
@@ -2621,8 +2668,9 @@
       <c r="I39" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L39" s="28"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <v>2003</v>
       </c>
@@ -2652,7 +2700,7 @@
       </c>
       <c r="J40" s="14"/>
     </row>
-    <row r="41" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="20">
         <v>2004</v>
       </c>
@@ -2681,7 +2729,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <v>2005</v>
       </c>
@@ -2710,7 +2758,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="20">
         <v>2006</v>
       </c>
@@ -2739,7 +2787,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <v>2007</v>
       </c>
@@ -2765,7 +2813,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="4">
         <v>2008</v>
       </c>
@@ -2792,7 +2840,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <v>2009</v>
       </c>
@@ -2818,7 +2866,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>2010</v>
       </c>
@@ -2845,7 +2893,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <v>2011</v>
       </c>
@@ -4069,6 +4117,13 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -4082,15 +4137,8 @@
 </woProps>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4099,7 +4147,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
+++ b/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E776CC66-7547-49C3-B151-09CB8D44B13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD2A1DD-DB47-4C7A-863D-4ED7A6A1294F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1550,7 +1550,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -4117,13 +4117,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-</pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <woProps xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <woSheetsProps>
     <woSheetProps sheetStid="1" interlineOnOff="0" interlineColor="0" isDbSheet="0" isDashBoardSheet="0" isDbDashBoardSheet="0" isFlexPaperSheet="0">
@@ -4137,8 +4130,15 @@
 </woProps>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+</pixelators>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -4147,7 +4147,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06C82605-B75B-4693-9329-32AAD527C692}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
+++ b/pet-simulator/Excel/EggMachine_扭蛋机.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\pet-simulator\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD2A1DD-DB47-4C7A-863D-4ED7A6A1294F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7E989E-5D5D-47CF-A4CF-8F42197842F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1550,7 +1550,7 @@
   <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1888,7 +1888,7 @@
         <v>61</v>
       </c>
       <c r="C12" s="6">
-        <v>11250000</v>
+        <v>9000000</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>62</v>
@@ -2513,7 +2513,7 @@
         <v>136</v>
       </c>
       <c r="C34" s="9">
-        <v>40000000</v>
+        <v>32000000</v>
       </c>
       <c r="D34" s="14" t="s">
         <v>137</v>
@@ -2543,7 +2543,7 @@
         <v>140</v>
       </c>
       <c r="C35" s="16">
-        <v>101500000</v>
+        <v>81200000</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>141</v>
@@ -2573,7 +2573,7 @@
         <v>143</v>
       </c>
       <c r="C36" s="16">
-        <v>281500000</v>
+        <v>225200000</v>
       </c>
       <c r="D36" s="14" t="s">
         <v>144</v>
